--- a/output_data/101_auditory_loc_1.xlsx
+++ b/output_data/101_auditory_loc_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\MSc-neuroscience\auditory-experiment-code\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8FE73FE-7CEC-4481-B5A4-086B6008AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B18581E-16A8-4358-B43C-2B873A3B3D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{9CA89145-A7AE-4364-AE01-FBB80464484F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{6EB4E225-6CF6-41C3-B1EB-8AABECBB75BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>run_num</t>
   </si>
@@ -418,7 +407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E67D9A-F448-4ECA-9466-DA0BF0AD8B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04D64A2-6A42-4B19-8BD3-5CD719F884F6}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -430,8 +419,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -465,15 +453,18 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.0238505</v>
+        <v>3.0225586</v>
       </c>
       <c r="D2">
-        <v>10.2252077</v>
+        <v>13.5756791</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -485,15 +476,18 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>14.0230245</v>
+        <v>14.0208505</v>
       </c>
       <c r="D3">
-        <v>21.039200999999998</v>
+        <v>24.538787500000002</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -505,15 +499,18 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>25.022801999999999</v>
+        <v>25.025416700000001</v>
       </c>
       <c r="D4">
-        <v>32.021114699999998</v>
+        <v>35.569280900000003</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -525,15 +522,18 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>36.0228307</v>
+        <v>36.022042499999998</v>
       </c>
       <c r="D5">
-        <v>43.023003899999999</v>
+        <v>46.563483099999999</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D0CE5-B366-4035-B490-11357BA394B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97969EDB-1DAF-4F8D-A684-60A3ED4A5720}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -555,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459B3C13-38D2-4209-8D4A-8D6EF044F0DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650DFDA1-1B98-48F1-B595-FD6198E56F47}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
